--- a/data/schub/small/students.xlsx
+++ b/data/schub/small/students.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\layo\Desktop\ALX\schub\data2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EDA760-5FB6-45E0-9B8A-DF5C09ED812E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDB8366-2ED3-48AD-888D-82D41B90C91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4455" yWindow="2925" windowWidth="21600" windowHeight="11385" xr2:uid="{DB128E93-98E6-44DD-9806-01881FCC9C33}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{DB128E93-98E6-44DD-9806-01881FCC9C33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="201">
   <si>
     <t>age</t>
   </si>
@@ -610,6 +610,24 @@
   </si>
   <si>
     <t>53af4926-52ee-41d0-9acc-ae7230300001</t>
+  </si>
+  <si>
+    <t>recovery_question</t>
+  </si>
+  <si>
+    <t>recovery_answer</t>
+  </si>
+  <si>
+    <t>What is your mother's maiden name?</t>
+  </si>
+  <si>
+    <t>What is your favorite football team?</t>
+  </si>
+  <si>
+    <t>What street did you live as a child?</t>
+  </si>
+  <si>
+    <t>What is the name of your childhood best friend?</t>
   </si>
 </sst>
 </file>
@@ -972,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9358DAC3-8769-4252-B880-ADFC5585388F}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:C31"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,9 +1007,11 @@
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1025,16 +1045,22 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>23</v>
       </c>
       <c r="B2" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C2" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>72</v>
@@ -1060,16 +1086,22 @@
       <c r="K2" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>197</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>24</v>
       </c>
       <c r="B3" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C3" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>76</v>
@@ -1095,16 +1127,22 @@
       <c r="K3" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>197</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>19</v>
       </c>
       <c r="B4" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C4" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>80</v>
@@ -1130,16 +1168,22 @@
       <c r="K4" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>197</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>28</v>
       </c>
       <c r="B5" s="3">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="C5" s="3">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>84</v>
@@ -1165,16 +1209,22 @@
       <c r="K5" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>197</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>20</v>
       </c>
       <c r="B6" s="3">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="C6" s="3">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>88</v>
@@ -1200,16 +1250,22 @@
       <c r="K6" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>197</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>17</v>
       </c>
       <c r="B7" s="3">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="C7" s="3">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>92</v>
@@ -1235,16 +1291,22 @@
       <c r="K7" s="4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>197</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>29</v>
       </c>
       <c r="B8" s="3">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="C8" s="3">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>96</v>
@@ -1270,16 +1332,22 @@
       <c r="K8" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>197</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>30</v>
       </c>
       <c r="B9" s="3">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="C9" s="3">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>100</v>
@@ -1305,16 +1373,22 @@
       <c r="K9" s="4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>199</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>20</v>
       </c>
       <c r="B10" s="3">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="C10" s="3">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>105</v>
@@ -1340,16 +1414,22 @@
       <c r="K10" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>199</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>18</v>
       </c>
       <c r="B11" s="3">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="C11" s="3">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>109</v>
@@ -1375,16 +1455,22 @@
       <c r="K11" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>199</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>25</v>
       </c>
       <c r="B12" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C12" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>113</v>
@@ -1410,16 +1496,22 @@
       <c r="K12" s="4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>199</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>26</v>
       </c>
       <c r="B13" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C13" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>117</v>
@@ -1445,16 +1537,22 @@
       <c r="K13" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>199</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>27</v>
       </c>
       <c r="B14" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C14" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>121</v>
@@ -1480,16 +1578,22 @@
       <c r="K14" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>199</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>29</v>
       </c>
       <c r="B15" s="3">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="C15" s="3">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>125</v>
@@ -1515,16 +1619,22 @@
       <c r="K15" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>17</v>
       </c>
       <c r="B16" s="3">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="C16" s="3">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>129</v>
@@ -1550,16 +1660,22 @@
       <c r="K16" s="4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>200</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>20</v>
       </c>
       <c r="B17" s="3">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="C17" s="3">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>133</v>
@@ -1585,16 +1701,22 @@
       <c r="K17" s="4" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>200</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="C18" s="3">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>137</v>
@@ -1620,16 +1742,22 @@
       <c r="K18" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>200</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>22</v>
       </c>
       <c r="B19" s="3">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="C19" s="3">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>141</v>
@@ -1655,16 +1783,22 @@
       <c r="K19" s="4" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>200</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>30</v>
       </c>
       <c r="B20" s="3">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="C20" s="3">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>145</v>
@@ -1690,16 +1824,22 @@
       <c r="K20" s="4" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
+        <v>200</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>22</v>
       </c>
       <c r="B21" s="3">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="C21" s="3">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>149</v>
@@ -1725,16 +1865,22 @@
       <c r="K21" s="4" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
+        <v>200</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>28</v>
       </c>
       <c r="B22" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C22" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>153</v>
@@ -1760,16 +1906,22 @@
       <c r="K22" s="4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" t="s">
+        <v>200</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>29</v>
       </c>
       <c r="B23" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C23" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>157</v>
@@ -1795,16 +1947,22 @@
       <c r="K23" s="4" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>200</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>17</v>
       </c>
       <c r="B24" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C24" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>161</v>
@@ -1830,16 +1988,22 @@
       <c r="K24" s="4" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" t="s">
+        <v>198</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>29</v>
       </c>
       <c r="B25" s="3">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="C25" s="3">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>165</v>
@@ -1865,16 +2029,22 @@
       <c r="K25" s="4" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" t="s">
+        <v>198</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>20</v>
       </c>
       <c r="B26" s="3">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="C26" s="3">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>170</v>
@@ -1900,16 +2070,22 @@
       <c r="K26" s="4" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" t="s">
+        <v>198</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>21</v>
       </c>
       <c r="B27" s="3">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="C27" s="3">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>174</v>
@@ -1935,16 +2111,22 @@
       <c r="K27" s="4" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" t="s">
+        <v>198</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>22</v>
       </c>
       <c r="B28" s="3">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="C28" s="3">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>178</v>
@@ -1970,16 +2152,22 @@
       <c r="K28" s="4" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" t="s">
+        <v>198</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>27</v>
       </c>
       <c r="B29" s="3">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="C29" s="3">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>182</v>
@@ -2005,16 +2193,22 @@
       <c r="K29" s="4" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" t="s">
+        <v>198</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="C30" s="3">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>186</v>
@@ -2040,16 +2234,22 @@
       <c r="K30" s="4" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" t="s">
+        <v>198</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="3">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="C31" s="3">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>190</v>
@@ -2073,6 +2273,12 @@
         <v>192</v>
       </c>
       <c r="K31" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="L31" t="s">
+        <v>198</v>
+      </c>
+      <c r="M31" s="4" t="s">
         <v>193</v>
       </c>
     </row>
